--- a/03_datos_limpios/df_resultados_frecuencias.xlsx
+++ b/03_datos_limpios/df_resultados_frecuencias.xlsx
@@ -89,7 +89,7 @@
     <t xml:space="preserve">consent</t>
   </si>
   <si>
-    <t xml:space="preserve">Presentación y consentimiento informadoBuenos (días/tardes), el Centro de Investigación y Docencia Económicas (CIDE) A.C. es una Institución educativa que realiza estudios en ciencias sociales y tiene sedes en la Ciudad de México y Aguascalientes.El objetivo del presente estudio es conocer las herramientas y aprendizajes con los que cuenta sobre los usos, efectos y tipos de sustancias, con la finalidad de fortalecer su capacidad para orientar a estudiantes en situación de consumo de sustancias psicoactivas (SPA) dentro del contexto escolar.  &lt;u&gt;Acuerdo de Confidencialidad:&lt;/u&gt; La información proporcionada al presente estudio será usada únicamente con fines académicos y los datos serán utilizados de forma estadística. Los datos revelados no serán trasmitidos a terceras personas o instituciones bajo ningún motivo. Las publicaciones científicas que se generen de este estudio nunca revelarán datos personales de los participantes. Usted es libre de participar o no en esta investigación. No habrá́ ningún perjuicio ni pérdida de beneficios si no desea participar. Una vez iniciada su participación, usted tiene la libertad de retirarse en cualquier momento en que lo manifieste. No hay consecuencias si elige no completar el total de preguntas. La entrevista tendrá́ una duración aproximada de &lt;u&gt;20 a 25 minutos.&lt;/u&gt;Si usted tiene alguna duda o necesita una aclaración sobre este estudio, puede plantearla abiertamente a la investigadora a cargo del estudio en el correo electrónico angelica.ospina@cide.edu.&lt;u&gt;Consentimiento informado:&lt;/u&gt; He recibido la información necesaria y he resuelto todas mis dudas en forma satisfactoria, por lo tanto, doy mi consentimiento libre y voluntario a participar en el estudio realizado por el CIDE.&lt;u&gt;ACEPTO:&lt;/u&gt; Participar en la encuesta.       </t>
+    <t xml:space="preserve">¿Acepta participar en la encuesta?</t>
   </si>
   <si>
     <t xml:space="preserve">Sí, acepto.</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">comentario</t>
   </si>
   <si>
-    <t xml:space="preserve">Estas son todas las preguntas. Le agradecemos enormemente su participación. Si tiene alguna pregunta o comentario, puede escribirlo en el recuadro de abajo o puede comunicarse con la investigadora responsable del estudio al correo &lt;font color="#000080"&gt;angelica.ospina@cide.edu. </t>
+    <t xml:space="preserve">Sección abierta para comentarios finales</t>
   </si>
   <si>
     <t xml:space="preserve">92.3%</t>

--- a/03_datos_limpios/df_resultados_frecuencias.xlsx
+++ b/03_datos_limpios/df_resultados_frecuencias.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t xml:space="preserve">Número de la pregunta</t>
   </si>
@@ -182,31 +182,19 @@
     <t xml:space="preserve">¿Cuál es el nombre de la escuela en la que trabaja?</t>
   </si>
   <si>
-    <t xml:space="preserve">Cedros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colegio cedros</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colegio Cedros</t>
   </si>
   <si>
+    <t xml:space="preserve">tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuántos años lleva trabajando en esta escuela?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">15.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colegio Cedros Secundaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secundaria Cedros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiempo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Cuántos años lleva trabajando en esta escuela?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -1557,109 +1545,109 @@
         <v>56</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G32" t="n">
-        <v>0.307692307692308</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>0.153846153846154</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="H35" t="s">
         <v>60</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.230769230769231</v>
-      </c>
-      <c r="H35" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>0.230769230769231</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -1667,110 +1655,110 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.153846153846154</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>0.307692307692308</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>0.153846153846154</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" t="n">
         <v>10</v>
       </c>
-      <c r="F40" t="n">
-        <v>4</v>
-      </c>
       <c r="G40" t="n">
-        <v>0.307692307692308</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="H40" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1784,65 +1772,65 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0.769230769230769</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.230769230769231</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F44" t="n">
         <v>10</v>
@@ -1851,22 +1839,22 @@
         <v>0.769230769230769</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -1880,17 +1868,17 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -1904,17 +1892,17 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1928,7 +1916,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
         <v>79</v>
@@ -1936,23 +1924,25 @@
       <c r="C48" t="s">
         <v>80</v>
       </c>
-      <c r="D48"/>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G48" t="n">
-        <v>0.769230769230769</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
         <v>79</v>
@@ -1960,57 +1950,63 @@
       <c r="C49" t="s">
         <v>80</v>
       </c>
-      <c r="D49"/>
+      <c r="D49" t="s">
+        <v>81</v>
+      </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="H49" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>80</v>
       </c>
-      <c r="D50"/>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
       <c r="E50" t="s">
         <v>82</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="H50" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>80</v>
       </c>
-      <c r="D51"/>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -2027,25 +2023,25 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
         <v>84</v>
       </c>
-      <c r="D52" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" t="s">
-        <v>86</v>
-      </c>
       <c r="F52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>0.461538461538462</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H52" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -2053,25 +2049,25 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>0.538461538461538</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="H53" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54">
@@ -2082,22 +2078,22 @@
         <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
         <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F54" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>0.846153846153846</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H54" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -2105,25 +2101,25 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="H55" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
@@ -2131,25 +2127,25 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" t="s">
         <v>84</v>
       </c>
-      <c r="D56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" t="s">
-        <v>88</v>
-      </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
@@ -2160,22 +2156,22 @@
         <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
         <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" t="n">
-        <v>0.769230769230769</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58">
@@ -2186,7 +2182,7 @@
         <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
         <v>94</v>
@@ -2195,13 +2191,13 @@
         <v>88</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>0.230769230769231</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
@@ -2209,129 +2205,129 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" t="s">
         <v>84</v>
       </c>
-      <c r="D59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" t="s">
-        <v>86</v>
-      </c>
       <c r="F59" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>0.846153846153846</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H59" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
         <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>0.153846153846154</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="H60" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" t="s">
         <v>97</v>
       </c>
-      <c r="C61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" t="s">
-        <v>98</v>
-      </c>
       <c r="E61" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F61" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>0.692307692307692</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" t="s">
         <v>97</v>
       </c>
-      <c r="C62" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" t="s">
-        <v>98</v>
-      </c>
       <c r="E62" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.153846153846154</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H62" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" t="s">
         <v>97</v>
       </c>
-      <c r="C63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" t="s">
-        <v>98</v>
-      </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0.153846153846154</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H63" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -2339,25 +2335,25 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" t="s">
         <v>101</v>
       </c>
-      <c r="E64" t="s">
-        <v>102</v>
-      </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>0.307692307692308</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H64" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
@@ -2365,25 +2361,25 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G65" t="n">
-        <v>0.384615384615385</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="H65" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
@@ -2391,16 +2387,16 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" t="s">
         <v>99</v>
-      </c>
-      <c r="C66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" t="s">
-        <v>92</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -2417,16 +2413,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -2443,16 +2439,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" t="s">
         <v>100</v>
-      </c>
-      <c r="D68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" t="s">
-        <v>105</v>
       </c>
       <c r="F68" t="n">
         <v>2</v>
@@ -2461,7 +2457,7 @@
         <v>0.153846153846154</v>
       </c>
       <c r="H68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69">
@@ -2469,25 +2465,25 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" t="s">
         <v>106</v>
       </c>
-      <c r="C69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D69" t="s">
-        <v>107</v>
-      </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F69" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0.692307692307692</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -2495,25 +2491,25 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" t="s">
         <v>106</v>
       </c>
-      <c r="C70" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" t="s">
-        <v>107</v>
-      </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H70" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71">
@@ -2521,16 +2517,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" t="s">
         <v>106</v>
       </c>
-      <c r="C71" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71" t="s">
-        <v>107</v>
-      </c>
       <c r="E71" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -2547,25 +2543,25 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" t="s">
         <v>106</v>
       </c>
-      <c r="C72" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" t="s">
-        <v>107</v>
-      </c>
       <c r="E72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>0.153846153846154</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="H72" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73">
@@ -2573,25 +2569,25 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="H73" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74">
@@ -2599,25 +2595,25 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E74" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>0.461538461538462</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H74" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75">
@@ -2625,16 +2621,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E75" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -2651,129 +2647,129 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
         <v>100</v>
       </c>
-      <c r="D76" t="s">
-        <v>110</v>
-      </c>
-      <c r="E76" t="s">
-        <v>105</v>
-      </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>0.384615384615385</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H76" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
         <v>111</v>
       </c>
-      <c r="C77" t="s">
-        <v>100</v>
-      </c>
-      <c r="D77" t="s">
-        <v>112</v>
-      </c>
       <c r="E77" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>0.538461538461538</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H77" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" t="s">
         <v>111</v>
       </c>
-      <c r="C78" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" t="s">
-        <v>112</v>
-      </c>
       <c r="E78" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.153846153846154</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H78" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
         <v>111</v>
       </c>
-      <c r="C79" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" t="s">
-        <v>112</v>
-      </c>
       <c r="E79" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
-        <v>0.230769230769231</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="H80" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
@@ -2781,25 +2777,25 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" t="s">
         <v>113</v>
       </c>
-      <c r="C81" t="s">
-        <v>114</v>
-      </c>
-      <c r="D81" t="s">
-        <v>115</v>
-      </c>
       <c r="E81" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F81" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0.461538461538462</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H81" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
@@ -2807,25 +2803,25 @@
         <v>13</v>
       </c>
       <c r="B82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" t="s">
         <v>113</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="H82" t="s">
         <v>114</v>
-      </c>
-      <c r="D82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.0769230769230769</v>
-      </c>
-      <c r="H82" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="83">
@@ -2833,25 +2829,25 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E83" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G83" t="n">
-        <v>0.461538461538462</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="H83" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84">
@@ -2859,25 +2855,25 @@
         <v>13</v>
       </c>
       <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" t="s">
         <v>116</v>
       </c>
-      <c r="C84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" t="s">
-        <v>117</v>
-      </c>
       <c r="E84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0.307692307692308</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H84" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -2885,25 +2881,25 @@
         <v>13</v>
       </c>
       <c r="B85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" t="s">
         <v>116</v>
       </c>
-      <c r="C85" t="s">
-        <v>114</v>
-      </c>
-      <c r="D85" t="s">
-        <v>117</v>
-      </c>
       <c r="E85" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="H85" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86">
@@ -2911,25 +2907,25 @@
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D86" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E86" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>0.615384615384615</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87">
@@ -2937,25 +2933,25 @@
         <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E87" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0.384615384615385</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H87" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
@@ -2963,16 +2959,16 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E88" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -2986,94 +2982,94 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
         <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E89" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F89" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0.538461538461538</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H89" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" t="s">
         <v>121</v>
       </c>
-      <c r="C90" t="s">
-        <v>114</v>
-      </c>
-      <c r="D90" t="s">
-        <v>122</v>
-      </c>
       <c r="E90" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F90" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G90" t="n">
-        <v>0.846153846153846</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H90" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" t="s">
         <v>121</v>
       </c>
-      <c r="C91" t="s">
-        <v>114</v>
-      </c>
-      <c r="D91" t="s">
-        <v>122</v>
-      </c>
       <c r="E91" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H91" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" t="s">
         <v>121</v>
-      </c>
-      <c r="C92" t="s">
-        <v>114</v>
-      </c>
-      <c r="D92" t="s">
-        <v>122</v>
       </c>
       <c r="E92" t="s">
         <v>88</v>
@@ -3093,25 +3089,25 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D93" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E93" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94">
@@ -3119,25 +3115,25 @@
         <v>14</v>
       </c>
       <c r="B94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" t="s">
         <v>123</v>
       </c>
-      <c r="C94" t="s">
-        <v>124</v>
-      </c>
-      <c r="D94" t="s">
-        <v>125</v>
-      </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0.461538461538462</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H94" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -3145,25 +3141,25 @@
         <v>14</v>
       </c>
       <c r="B95" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" t="s">
         <v>123</v>
       </c>
-      <c r="C95" t="s">
-        <v>124</v>
-      </c>
-      <c r="D95" t="s">
-        <v>125</v>
-      </c>
       <c r="E95" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G95" t="n">
-        <v>0.230769230769231</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="H95" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96">
@@ -3171,16 +3167,16 @@
         <v>14</v>
       </c>
       <c r="B96" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" t="s">
         <v>123</v>
       </c>
-      <c r="C96" t="s">
-        <v>124</v>
-      </c>
-      <c r="D96" t="s">
-        <v>125</v>
-      </c>
       <c r="E96" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -3197,25 +3193,25 @@
         <v>14</v>
       </c>
       <c r="B97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97" t="s">
         <v>123</v>
       </c>
-      <c r="C97" t="s">
-        <v>124</v>
-      </c>
-      <c r="D97" t="s">
-        <v>125</v>
-      </c>
       <c r="E97" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G97" t="n">
-        <v>0.153846153846154</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="H97" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98">
@@ -3223,25 +3219,25 @@
         <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E98" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
@@ -3249,25 +3245,25 @@
         <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E99" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F99" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>0.538461538461538</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H99" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100">
@@ -3275,25 +3271,25 @@
         <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E100" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101">
@@ -3301,25 +3297,25 @@
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0.307692307692308</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H101" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
@@ -3327,25 +3323,25 @@
         <v>14</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D102" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E102" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0.153846153846154</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H102" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
@@ -3353,25 +3349,25 @@
         <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>0.153846153846154</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H103" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
@@ -3379,25 +3375,25 @@
         <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D104" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F104" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G104" t="n">
-        <v>0.461538461538462</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H104" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -3405,25 +3401,25 @@
         <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E105" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="H105" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
@@ -3431,16 +3427,16 @@
         <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D106" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E106" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -3457,16 +3453,16 @@
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E107" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -3483,16 +3479,16 @@
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D108" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E108" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F108" t="n">
         <v>3</v>
@@ -3509,25 +3505,25 @@
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D109" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E109" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F109" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G109" t="n">
-        <v>0.615384615384615</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H109" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110">
@@ -3535,25 +3531,25 @@
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D110" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E110" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H110" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -3561,16 +3557,16 @@
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D111" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E111" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -3587,25 +3583,25 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E112" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F112" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G112" t="n">
-        <v>0.230769230769231</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="H112" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113">
@@ -3613,25 +3609,25 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E113" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F113" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.461538461538462</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H113" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
@@ -3639,25 +3635,25 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E114" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.230769230769231</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H114" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
@@ -3665,177 +3661,177 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="H115" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116" t="s">
         <v>134</v>
       </c>
-      <c r="C116" t="s">
-        <v>124</v>
-      </c>
-      <c r="D116" t="s">
-        <v>135</v>
-      </c>
-      <c r="E116" t="s">
-        <v>102</v>
-      </c>
       <c r="F116" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>0.538461538461538</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="H116" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C117" t="s">
-        <v>124</v>
-      </c>
-      <c r="D117" t="s">
+        <v>133</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" t="s">
         <v>135</v>
       </c>
-      <c r="E117" t="s">
-        <v>103</v>
-      </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H117" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D118" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E118" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H118" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D119" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F119" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>0.307692307692308</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="H119" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C120" t="s">
         <v>137</v>
       </c>
-      <c r="D120"/>
+      <c r="D120" t="s">
+        <v>140</v>
+      </c>
       <c r="E120" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="F120" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G120" t="n">
-        <v>0.769230769230769</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="H120" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s">
         <v>137</v>
       </c>
-      <c r="D121"/>
+      <c r="D121" t="s">
+        <v>140</v>
+      </c>
       <c r="E121" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="F121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0.230769230769231</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H121" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -3843,25 +3839,25 @@
         <v>16</v>
       </c>
       <c r="B122" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" t="s">
+        <v>137</v>
+      </c>
+      <c r="D122" t="s">
         <v>140</v>
       </c>
-      <c r="C122" t="s">
-        <v>141</v>
-      </c>
-      <c r="D122" t="s">
-        <v>142</v>
-      </c>
       <c r="E122" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F122" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G122" t="n">
-        <v>0.230769230769231</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="H122" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123">
@@ -3869,25 +3865,25 @@
         <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D123" t="s">
         <v>142</v>
       </c>
       <c r="E123" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G123" t="n">
-        <v>0.769230769230769</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="H123" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124">
@@ -3895,176 +3891,72 @@
         <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E124" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F124" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G124" t="n">
-        <v>0.384615384615385</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H124" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B125" t="s">
         <v>143</v>
       </c>
       <c r="C125" t="s">
-        <v>141</v>
-      </c>
-      <c r="D125" t="s">
         <v>144</v>
       </c>
+      <c r="D125"/>
       <c r="E125" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="H125" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B126" t="s">
         <v>143</v>
       </c>
       <c r="C126" t="s">
-        <v>141</v>
-      </c>
-      <c r="D126" t="s">
         <v>144</v>
       </c>
+      <c r="D126"/>
       <c r="E126" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="F126" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0.538461538461538</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="H126" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>16</v>
-      </c>
-      <c r="B127" t="s">
-        <v>145</v>
-      </c>
-      <c r="C127" t="s">
-        <v>141</v>
-      </c>
-      <c r="D127" t="s">
-        <v>146</v>
-      </c>
-      <c r="E127" t="s">
-        <v>86</v>
-      </c>
-      <c r="F127" t="n">
-        <v>7</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.538461538461538</v>
-      </c>
-      <c r="H127" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>16</v>
-      </c>
-      <c r="B128" t="s">
-        <v>145</v>
-      </c>
-      <c r="C128" t="s">
-        <v>141</v>
-      </c>
-      <c r="D128" t="s">
-        <v>146</v>
-      </c>
-      <c r="E128" t="s">
-        <v>88</v>
-      </c>
-      <c r="F128" t="n">
-        <v>6</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="H128" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>17</v>
-      </c>
-      <c r="B129" t="s">
-        <v>147</v>
-      </c>
-      <c r="C129" t="s">
-        <v>148</v>
-      </c>
-      <c r="D129"/>
-      <c r="E129" t="s">
-        <v>75</v>
-      </c>
-      <c r="F129" t="n">
-        <v>12</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.923076923076923</v>
-      </c>
-      <c r="H129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>17</v>
-      </c>
-      <c r="B130" t="s">
-        <v>147</v>
-      </c>
-      <c r="C130" t="s">
-        <v>148</v>
-      </c>
-      <c r="D130"/>
-      <c r="E130" t="s">
-        <v>150</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.0769230769230769</v>
-      </c>
-      <c r="H130" t="s">
         <v>11</v>
       </c>
     </row>
